--- a/sieg-zion/checklist.xlsx
+++ b/sieg-zion/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/sieg-zion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E81A38D-29B3-4E4D-8C84-290AD7E0B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD413274-479B-F247-97D8-0459C8A1ADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{4C161B56-619D-E544-AE44-E32BBE338B09}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>トワイライトオブジオン</t>
+  </si>
+  <si>
+    <t>product_type</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:F5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +479,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
